--- a/data/microbiome_variability_taxa_to_rename-2017-11-03.xlsx
+++ b/data/microbiome_variability_taxa_to_rename-2017-11-03.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>current_classification</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Ureaplasma parvum/urealyticum</t>
+  </si>
+  <si>
+    <t>Eggerthella sp. type 1 (species)</t>
+  </si>
+  <si>
+    <t>Eggerthella sp. type 1</t>
   </si>
 </sst>
 </file>
@@ -603,8 +609,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
@@ -948,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -963,188 +968,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>28263</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7">
         <v>404402</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8">
         <v>47770</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9">
         <v>1633</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10">
         <v>68892</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11">
         <v>1318</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12">
         <v>257758</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13">
         <v>1305</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14">
         <v>2129</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D14">
+    <sortCondition ref="A2:A14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
